--- a/pabi_budget_plan/xlsx_template/invest_asset_plan_20180202.xlsx
+++ b/pabi_budget_plan/xlsx_template/invest_asset_plan_20180202.xlsx
@@ -715,7 +715,7 @@
     <numFmt numFmtId="166" formatCode="#,##0.00_);[RED]\(#,##0.00\);&quot;&quot;"/>
     <numFmt numFmtId="167" formatCode="#,##0.00"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -737,13 +737,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="222"/>
     </font>
     <font>
       <sz val="10"/>
@@ -902,7 +895,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -926,48 +919,48 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -976,107 +969,98 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Normal 5" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1149,11 +1133,11 @@
   <dimension ref="B2:AL34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="8" ySplit="9" topLeftCell="AH10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="9" topLeftCell="I10" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="AH1" activeCellId="0" sqref="AH1"/>
+      <selection pane="topRight" activeCell="I1" activeCellId="0" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1162,13 +1146,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="6.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="28.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="18.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="14.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="14.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="23.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="30.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="18.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="23.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="14.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="14.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="7.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="16" style="1" width="15.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="16.5"/>
@@ -3096,11 +3080,11 @@
       <c r="N34" s="8"/>
       <c r="O34" s="8"/>
       <c r="P34" s="8"/>
-      <c r="Q34" s="30" t="s">
+      <c r="Q34" s="8" t="s">
         <v>104</v>
       </c>
       <c r="R34" s="8"/>
-      <c r="S34" s="30" t="s">
+      <c r="S34" s="8" t="s">
         <v>104</v>
       </c>
       <c r="T34" s="8"/>
@@ -3114,20 +3098,20 @@
       <c r="AB34" s="8"/>
       <c r="AC34" s="8"/>
       <c r="AD34" s="8"/>
-      <c r="AE34" s="30" t="s">
+      <c r="AE34" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="AF34" s="30"/>
-      <c r="AG34" s="30" t="s">
+      <c r="AF34" s="8"/>
+      <c r="AG34" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="AH34" s="30" t="s">
+      <c r="AH34" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="AI34" s="30" t="s">
+      <c r="AI34" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="AJ34" s="30" t="s">
+      <c r="AJ34" s="8" t="s">
         <v>104</v>
       </c>
       <c r="AL34" s="8"/>
@@ -3196,10 +3180,10 @@
   </sheetPr>
   <dimension ref="B1:AMJ4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="J5" activeCellId="0" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3219,31 +3203,31 @@
   <sheetData>
     <row r="1" customFormat="false" ht="4.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="30" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="4.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="4" s="32" customFormat="true" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="33" t="s">
+    <row r="4" s="31" customFormat="true" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="33" t="s">
+      <c r="H4" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="33" t="s">
+      <c r="J4" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="33" t="s">
+      <c r="K4" s="32" t="s">
         <v>32</v>
       </c>
       <c r="AMI4" s="0"/>

--- a/pabi_budget_plan/xlsx_template/invest_asset_plan_20180202.xlsx
+++ b/pabi_budget_plan/xlsx_template/invest_asset_plan_20180202.xlsx
@@ -62,7 +62,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F8" authorId="0">
+    <comment ref="G8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -103,7 +103,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G8" authorId="0">
+    <comment ref="H8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -147,7 +147,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H8" authorId="0">
+    <comment ref="I8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -161,7 +161,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R8" authorId="0">
+    <comment ref="S8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -185,7 +185,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S8" authorId="0">
+    <comment ref="T8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -219,7 +219,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U8" authorId="0">
+    <comment ref="V8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -306,7 +306,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V8" authorId="0">
+    <comment ref="W8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -382,7 +382,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="109">
   <si>
     <t xml:space="preserve">Fiscal Year</t>
   </si>
@@ -468,6 +468,9 @@
     <t xml:space="preserve">Program </t>
   </si>
   <si>
+    <t xml:space="preserve">Asset Code (Cont.)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Asset Category</t>
   </si>
   <si>
@@ -573,6 +576,9 @@
     <t xml:space="preserve">แผนงาน</t>
   </si>
   <si>
+    <t xml:space="preserve">รหัสครุภัณฑ์ (ต่อเนื่อง)</t>
+  </si>
+  <si>
     <t xml:space="preserve">หมวดหมู่ครุภัณฑ์</t>
   </si>
   <si>
@@ -669,6 +675,9 @@
     <t xml:space="preserve">Selection</t>
   </si>
   <si>
+    <t xml:space="preserve">narative</t>
+  </si>
+  <si>
     <t xml:space="preserve">Free text</t>
   </si>
   <si>
@@ -685,9 +694,6 @@
   </si>
   <si>
     <t xml:space="preserve">List</t>
-  </si>
-  <si>
-    <t xml:space="preserve">narative</t>
   </si>
   <si>
     <t xml:space="preserve">employee ID</t>
@@ -938,11 +944,11 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1130,37 +1136,38 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:AL34"/>
+  <dimension ref="B2:AM34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="8" ySplit="9" topLeftCell="I10" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="I1" activeCellId="0" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.85" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="0.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="6.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="28.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="18.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="23.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="30.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="18.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="23.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="7.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="16" style="1" width="15.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="16.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="22" style="1" width="50.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="16.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="50.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="26" style="1" width="15.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="37" style="1" width="24"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="18.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="14.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="23.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="1" width="30.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="19.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="18.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="23.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="14.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="7.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="17" style="1" width="15.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="16.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="23" style="1" width="50.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="16.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="50.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="27" style="1" width="15.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="38" style="1" width="24"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1171,25 +1178,25 @@
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
       <c r="F2" s="4"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="7"/>
+      <c r="G2" s="5"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
       <c r="AD2" s="7"/>
       <c r="AE2" s="7"/>
       <c r="AF2" s="7"/>
@@ -1197,8 +1204,9 @@
       <c r="AH2" s="7"/>
       <c r="AI2" s="7"/>
       <c r="AJ2" s="7"/>
-      <c r="AK2" s="8"/>
-      <c r="AL2" s="7"/>
+      <c r="AK2" s="7"/>
+      <c r="AL2" s="8"/>
+      <c r="AM2" s="7"/>
     </row>
     <row r="3" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="2" t="s">
@@ -1208,25 +1216,25 @@
       <c r="D3" s="2"/>
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="5"/>
-      <c r="AC3" s="7"/>
+      <c r="G3" s="5"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
       <c r="AD3" s="7"/>
       <c r="AE3" s="7"/>
       <c r="AF3" s="7"/>
@@ -1234,8 +1242,9 @@
       <c r="AH3" s="7"/>
       <c r="AI3" s="7"/>
       <c r="AJ3" s="7"/>
-      <c r="AK3" s="8"/>
-      <c r="AL3" s="7"/>
+      <c r="AK3" s="7"/>
+      <c r="AL3" s="8"/>
+      <c r="AM3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="2" t="s">
@@ -1245,25 +1254,25 @@
       <c r="D4" s="2"/>
       <c r="E4" s="3"/>
       <c r="F4" s="4"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="7"/>
+      <c r="G4" s="5"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
       <c r="AD4" s="7"/>
       <c r="AE4" s="7"/>
       <c r="AF4" s="7"/>
@@ -1271,8 +1280,9 @@
       <c r="AH4" s="7"/>
       <c r="AI4" s="7"/>
       <c r="AJ4" s="7"/>
-      <c r="AK4" s="8"/>
-      <c r="AL4" s="7"/>
+      <c r="AK4" s="7"/>
+      <c r="AL4" s="8"/>
+      <c r="AM4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="2" t="s">
@@ -1282,25 +1292,25 @@
       <c r="D5" s="2"/>
       <c r="E5" s="3"/>
       <c r="F5" s="4"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="5"/>
-      <c r="AC5" s="7"/>
+      <c r="G5" s="5"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="4"/>
       <c r="AD5" s="7"/>
       <c r="AE5" s="7"/>
       <c r="AF5" s="7"/>
@@ -1308,10 +1318,11 @@
       <c r="AH5" s="7"/>
       <c r="AI5" s="7"/>
       <c r="AJ5" s="7"/>
-      <c r="AK5" s="8"/>
-      <c r="AL5" s="7"/>
+      <c r="AK5" s="7"/>
+      <c r="AL5" s="8"/>
+      <c r="AM5" s="7"/>
     </row>
-    <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1321,36 +1332,37 @@
         <v>5</v>
       </c>
       <c r="F6" s="4"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="5"/>
-      <c r="AC6" s="7"/>
+      <c r="G6" s="5"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
       <c r="AD6" s="7"/>
       <c r="AE6" s="7"/>
       <c r="AF6" s="7"/>
       <c r="AG6" s="7"/>
       <c r="AH6" s="7"/>
-      <c r="AI6" s="6"/>
-      <c r="AJ6" s="7"/>
-      <c r="AK6" s="8"/>
-      <c r="AL6" s="7"/>
+      <c r="AI6" s="7"/>
+      <c r="AJ6" s="6"/>
+      <c r="AK6" s="7"/>
+      <c r="AL6" s="8"/>
+      <c r="AM6" s="7"/>
     </row>
-    <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -1364,66 +1376,67 @@
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
-      <c r="O7" s="10" t="s">
+      <c r="O7" s="9"/>
+      <c r="P7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="P7" s="10" t="s">
+      <c r="Q7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="Q7" s="10" t="s">
+      <c r="R7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="R7" s="10" t="s">
+      <c r="S7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="S7" s="10" t="s">
+      <c r="T7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="T7" s="10" t="s">
+      <c r="U7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="U7" s="9" t="s">
+      <c r="V7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="V7" s="9"/>
       <c r="W7" s="9"/>
       <c r="X7" s="9"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="10" t="s">
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AA7" s="10" t="s">
+      <c r="AB7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AB7" s="10" t="s">
+      <c r="AC7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AC7" s="10" t="s">
+      <c r="AD7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="AD7" s="10" t="s">
+      <c r="AE7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="AE7" s="10" t="s">
+      <c r="AF7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="AF7" s="10" t="s">
+      <c r="AG7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AG7" s="10" t="s">
+      <c r="AH7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="AH7" s="10" t="s">
+      <c r="AI7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AI7" s="10" t="s">
+      <c r="AJ7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="AJ7" s="10" t="s">
+      <c r="AK7" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="39.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="37.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="12" t="s">
         <v>24</v>
       </c>
@@ -1496,7 +1509,7 @@
       <c r="Y8" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="Z8" s="14" t="s">
+      <c r="Z8" s="13" t="s">
         <v>48</v>
       </c>
       <c r="AA8" s="14" t="s">
@@ -1529,115 +1542,121 @@
       <c r="AJ8" s="14" t="s">
         <v>58</v>
       </c>
+      <c r="AK8" s="14" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="9" customFormat="false" ht="45.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="32.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L9" s="13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M9" s="13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N9" s="13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O9" s="13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P9" s="13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q9" s="13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R9" s="13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S9" s="13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T9" s="13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U9" s="13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V9" s="13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W9" s="13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X9" s="13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y9" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z9" s="14" t="s">
         <v>83</v>
       </c>
+      <c r="Z9" s="13" t="s">
+        <v>84</v>
+      </c>
       <c r="AA9" s="14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AB9" s="14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AC9" s="14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AD9" s="14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AE9" s="14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AF9" s="14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AG9" s="14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH9" s="14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI9" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ9" s="14" t="s">
-        <v>93</v>
+        <v>94</v>
+      </c>
+      <c r="AK9" s="14" t="s">
+        <v>95</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
@@ -1645,61 +1664,62 @@
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
       <c r="H10" s="17"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="19" t="str">
-        <f aca="false">IF(ISNA(VLOOKUP($I10,TAB_List!$J:$K,2,0)),"",VLOOKUP($I10,TAB_List!$J:$K,2,0))</f>
-        <v/>
-      </c>
-      <c r="K10" s="16"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="20" t="str">
-        <f aca="false">IF($L10="","",VLOOKUP($L10,TAB_List!$F:$G,2,0))</f>
-        <v/>
-      </c>
-      <c r="N10" s="16"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="23" t="n">
-        <f aca="false">O10*P10</f>
-        <v>0</v>
-      </c>
-      <c r="R10" s="22"/>
-      <c r="S10" s="23" t="n">
-        <f aca="false">Q10+R10</f>
-        <v>0</v>
-      </c>
+      <c r="I10" s="17"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="19" t="str">
+        <f aca="false">IF(ISNA(VLOOKUP($J10,TAB_List!$J:$K,2,0)),"",VLOOKUP($J10,TAB_List!$J:$K,2,0))</f>
+        <v/>
+      </c>
+      <c r="L10" s="16"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="20" t="str">
+        <f aca="false">IF($M10="","",VLOOKUP($M10,TAB_List!$F:$G,2,0))</f>
+        <v/>
+      </c>
+      <c r="O10" s="16"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="23" t="n">
+        <f aca="false">P10*Q10</f>
+        <v>0</v>
+      </c>
+      <c r="S10" s="22"/>
       <c r="T10" s="23" t="n">
-        <f aca="false">ROUNDUP(S10,-1)</f>
-        <v>0</v>
-      </c>
-      <c r="U10" s="24"/>
-      <c r="V10" s="17"/>
+        <f aca="false">R10+S10</f>
+        <v>0</v>
+      </c>
+      <c r="U10" s="23" t="n">
+        <f aca="false">ROUNDUP(T10,-1)</f>
+        <v>0</v>
+      </c>
+      <c r="V10" s="24"/>
       <c r="W10" s="17"/>
-      <c r="X10" s="21"/>
-      <c r="Y10" s="17"/>
-      <c r="Z10" s="25"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="21"/>
+      <c r="Z10" s="17"/>
       <c r="AA10" s="25"/>
       <c r="AB10" s="25"/>
       <c r="AC10" s="25"/>
       <c r="AD10" s="25"/>
-      <c r="AE10" s="25" t="n">
-        <f aca="false">AB10+AC10+AD10</f>
-        <v>0</v>
-      </c>
-      <c r="AF10" s="25"/>
-      <c r="AG10" s="25" t="n">
-        <f aca="false">AE10+AF10</f>
-        <v>0</v>
-      </c>
+      <c r="AE10" s="25"/>
+      <c r="AF10" s="25" t="n">
+        <f aca="false">AC10+AD10+AE10</f>
+        <v>0</v>
+      </c>
+      <c r="AG10" s="25"/>
       <c r="AH10" s="25" t="n">
-        <f aca="false">AA10-AG10</f>
+        <f aca="false">AF10+AG10</f>
         <v>0</v>
       </c>
       <c r="AI10" s="25" t="n">
-        <f aca="false">AE10+AH10</f>
-        <v>0</v>
-      </c>
-      <c r="AJ10" s="25"/>
+        <f aca="false">AB10-AH10</f>
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="25" t="n">
+        <f aca="false">AF10+AI10</f>
+        <v>0</v>
+      </c>
+      <c r="AK10" s="25"/>
     </row>
     <row r="11" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="15"/>
@@ -1709,61 +1729,62 @@
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="19" t="str">
-        <f aca="false">IF(ISNA(VLOOKUP($I11,TAB_List!$J:$K,2,0)),"",VLOOKUP($I11,TAB_List!$J:$K,2,0))</f>
-        <v/>
-      </c>
-      <c r="K11" s="16"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="20" t="str">
-        <f aca="false">IF($L11="","",VLOOKUP($L11,TAB_List!$F:$G,2,0))</f>
-        <v/>
-      </c>
-      <c r="N11" s="16"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="23" t="n">
-        <f aca="false">O11*P11</f>
-        <v>0</v>
-      </c>
-      <c r="R11" s="22"/>
-      <c r="S11" s="23" t="n">
-        <f aca="false">Q11+R11</f>
-        <v>0</v>
-      </c>
+      <c r="I11" s="17"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="19" t="str">
+        <f aca="false">IF(ISNA(VLOOKUP($J11,TAB_List!$J:$K,2,0)),"",VLOOKUP($J11,TAB_List!$J:$K,2,0))</f>
+        <v/>
+      </c>
+      <c r="L11" s="16"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="20" t="str">
+        <f aca="false">IF($M11="","",VLOOKUP($M11,TAB_List!$F:$G,2,0))</f>
+        <v/>
+      </c>
+      <c r="O11" s="16"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="23" t="n">
+        <f aca="false">P11*Q11</f>
+        <v>0</v>
+      </c>
+      <c r="S11" s="22"/>
       <c r="T11" s="23" t="n">
-        <f aca="false">ROUNDUP(S11,-1)</f>
-        <v>0</v>
-      </c>
-      <c r="U11" s="24"/>
-      <c r="V11" s="17"/>
+        <f aca="false">R11+S11</f>
+        <v>0</v>
+      </c>
+      <c r="U11" s="23" t="n">
+        <f aca="false">ROUNDUP(T11,-1)</f>
+        <v>0</v>
+      </c>
+      <c r="V11" s="24"/>
       <c r="W11" s="17"/>
-      <c r="X11" s="21"/>
-      <c r="Y11" s="17"/>
-      <c r="Z11" s="25"/>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="21"/>
+      <c r="Z11" s="17"/>
       <c r="AA11" s="25"/>
       <c r="AB11" s="25"/>
       <c r="AC11" s="25"/>
       <c r="AD11" s="25"/>
-      <c r="AE11" s="25" t="n">
-        <f aca="false">AB11+AC11+AD11</f>
-        <v>0</v>
-      </c>
-      <c r="AF11" s="25"/>
-      <c r="AG11" s="25" t="n">
-        <f aca="false">AE11+AF11</f>
-        <v>0</v>
-      </c>
+      <c r="AE11" s="25"/>
+      <c r="AF11" s="25" t="n">
+        <f aca="false">AC11+AD11+AE11</f>
+        <v>0</v>
+      </c>
+      <c r="AG11" s="25"/>
       <c r="AH11" s="25" t="n">
-        <f aca="false">AA11-AG11</f>
+        <f aca="false">AF11+AG11</f>
         <v>0</v>
       </c>
       <c r="AI11" s="25" t="n">
-        <f aca="false">AE11+AH11</f>
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="25"/>
+        <f aca="false">AB11-AH11</f>
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="25" t="n">
+        <f aca="false">AF11+AI11</f>
+        <v>0</v>
+      </c>
+      <c r="AK11" s="25"/>
     </row>
     <row r="12" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="15"/>
@@ -1773,61 +1794,62 @@
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="19" t="str">
-        <f aca="false">IF(ISNA(VLOOKUP($I12,TAB_List!$J:$K,2,0)),"",VLOOKUP($I12,TAB_List!$J:$K,2,0))</f>
-        <v/>
-      </c>
-      <c r="K12" s="16"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="20" t="str">
-        <f aca="false">IF($L12="","",VLOOKUP($L12,TAB_List!$F:$G,2,0))</f>
-        <v/>
-      </c>
-      <c r="N12" s="16"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="23" t="n">
-        <f aca="false">O12*P12</f>
-        <v>0</v>
-      </c>
-      <c r="R12" s="22"/>
-      <c r="S12" s="23" t="n">
-        <f aca="false">Q12+R12</f>
-        <v>0</v>
-      </c>
+      <c r="I12" s="17"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="19" t="str">
+        <f aca="false">IF(ISNA(VLOOKUP($J12,TAB_List!$J:$K,2,0)),"",VLOOKUP($J12,TAB_List!$J:$K,2,0))</f>
+        <v/>
+      </c>
+      <c r="L12" s="16"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="20" t="str">
+        <f aca="false">IF($M12="","",VLOOKUP($M12,TAB_List!$F:$G,2,0))</f>
+        <v/>
+      </c>
+      <c r="O12" s="16"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="23" t="n">
+        <f aca="false">P12*Q12</f>
+        <v>0</v>
+      </c>
+      <c r="S12" s="22"/>
       <c r="T12" s="23" t="n">
-        <f aca="false">ROUNDUP(S12,-1)</f>
-        <v>0</v>
-      </c>
-      <c r="U12" s="24"/>
-      <c r="V12" s="17"/>
+        <f aca="false">R12+S12</f>
+        <v>0</v>
+      </c>
+      <c r="U12" s="23" t="n">
+        <f aca="false">ROUNDUP(T12,-1)</f>
+        <v>0</v>
+      </c>
+      <c r="V12" s="24"/>
       <c r="W12" s="17"/>
-      <c r="X12" s="21"/>
-      <c r="Y12" s="17"/>
-      <c r="Z12" s="25"/>
+      <c r="X12" s="17"/>
+      <c r="Y12" s="21"/>
+      <c r="Z12" s="17"/>
       <c r="AA12" s="25"/>
       <c r="AB12" s="25"/>
       <c r="AC12" s="25"/>
       <c r="AD12" s="25"/>
-      <c r="AE12" s="25" t="n">
-        <f aca="false">AB12+AC12+AD12</f>
-        <v>0</v>
-      </c>
-      <c r="AF12" s="25"/>
-      <c r="AG12" s="25" t="n">
-        <f aca="false">AE12+AF12</f>
-        <v>0</v>
-      </c>
+      <c r="AE12" s="25"/>
+      <c r="AF12" s="25" t="n">
+        <f aca="false">AC12+AD12+AE12</f>
+        <v>0</v>
+      </c>
+      <c r="AG12" s="25"/>
       <c r="AH12" s="25" t="n">
-        <f aca="false">AA12-AG12</f>
+        <f aca="false">AF12+AG12</f>
         <v>0</v>
       </c>
       <c r="AI12" s="25" t="n">
-        <f aca="false">AE12+AH12</f>
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="25"/>
+        <f aca="false">AB12-AH12</f>
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="25" t="n">
+        <f aca="false">AF12+AI12</f>
+        <v>0</v>
+      </c>
+      <c r="AK12" s="25"/>
     </row>
     <row r="13" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="15"/>
@@ -1837,61 +1859,62 @@
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="19" t="str">
-        <f aca="false">IF(ISNA(VLOOKUP($I13,TAB_List!$J:$K,2,0)),"",VLOOKUP($I13,TAB_List!$J:$K,2,0))</f>
-        <v/>
-      </c>
-      <c r="K13" s="16"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="20" t="str">
-        <f aca="false">IF($L13="","",VLOOKUP($L13,TAB_List!$F:$G,2,0))</f>
-        <v/>
-      </c>
-      <c r="N13" s="16"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="23" t="n">
-        <f aca="false">O13*P13</f>
-        <v>0</v>
-      </c>
-      <c r="R13" s="22"/>
-      <c r="S13" s="23" t="n">
-        <f aca="false">Q13+R13</f>
-        <v>0</v>
-      </c>
+      <c r="I13" s="17"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="19" t="str">
+        <f aca="false">IF(ISNA(VLOOKUP($J13,TAB_List!$J:$K,2,0)),"",VLOOKUP($J13,TAB_List!$J:$K,2,0))</f>
+        <v/>
+      </c>
+      <c r="L13" s="16"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="20" t="str">
+        <f aca="false">IF($M13="","",VLOOKUP($M13,TAB_List!$F:$G,2,0))</f>
+        <v/>
+      </c>
+      <c r="O13" s="16"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="23" t="n">
+        <f aca="false">P13*Q13</f>
+        <v>0</v>
+      </c>
+      <c r="S13" s="22"/>
       <c r="T13" s="23" t="n">
-        <f aca="false">ROUNDUP(S13,-1)</f>
-        <v>0</v>
-      </c>
-      <c r="U13" s="24"/>
-      <c r="V13" s="17"/>
+        <f aca="false">R13+S13</f>
+        <v>0</v>
+      </c>
+      <c r="U13" s="23" t="n">
+        <f aca="false">ROUNDUP(T13,-1)</f>
+        <v>0</v>
+      </c>
+      <c r="V13" s="24"/>
       <c r="W13" s="17"/>
-      <c r="X13" s="21"/>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="25"/>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="17"/>
       <c r="AA13" s="25"/>
       <c r="AB13" s="25"/>
       <c r="AC13" s="25"/>
       <c r="AD13" s="25"/>
-      <c r="AE13" s="25" t="n">
-        <f aca="false">AB13+AC13+AD13</f>
-        <v>0</v>
-      </c>
-      <c r="AF13" s="25"/>
-      <c r="AG13" s="25" t="n">
-        <f aca="false">AE13+AF13</f>
-        <v>0</v>
-      </c>
+      <c r="AE13" s="25"/>
+      <c r="AF13" s="25" t="n">
+        <f aca="false">AC13+AD13+AE13</f>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="25"/>
       <c r="AH13" s="25" t="n">
-        <f aca="false">AA13-AG13</f>
+        <f aca="false">AF13+AG13</f>
         <v>0</v>
       </c>
       <c r="AI13" s="25" t="n">
-        <f aca="false">AE13+AH13</f>
-        <v>0</v>
-      </c>
-      <c r="AJ13" s="25"/>
+        <f aca="false">AB13-AH13</f>
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="25" t="n">
+        <f aca="false">AF13+AI13</f>
+        <v>0</v>
+      </c>
+      <c r="AK13" s="25"/>
     </row>
     <row r="14" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="15"/>
@@ -1901,61 +1924,62 @@
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="19" t="str">
-        <f aca="false">IF(ISNA(VLOOKUP($I14,TAB_List!$J:$K,2,0)),"",VLOOKUP($I14,TAB_List!$J:$K,2,0))</f>
-        <v/>
-      </c>
-      <c r="K14" s="16"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="20" t="str">
-        <f aca="false">IF($L14="","",VLOOKUP($L14,TAB_List!$F:$G,2,0))</f>
-        <v/>
-      </c>
-      <c r="N14" s="16"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="23" t="n">
-        <f aca="false">O14*P14</f>
-        <v>0</v>
-      </c>
-      <c r="R14" s="22"/>
-      <c r="S14" s="23" t="n">
-        <f aca="false">Q14+R14</f>
-        <v>0</v>
-      </c>
+      <c r="I14" s="17"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="19" t="str">
+        <f aca="false">IF(ISNA(VLOOKUP($J14,TAB_List!$J:$K,2,0)),"",VLOOKUP($J14,TAB_List!$J:$K,2,0))</f>
+        <v/>
+      </c>
+      <c r="L14" s="16"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="20" t="str">
+        <f aca="false">IF($M14="","",VLOOKUP($M14,TAB_List!$F:$G,2,0))</f>
+        <v/>
+      </c>
+      <c r="O14" s="16"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="23" t="n">
+        <f aca="false">P14*Q14</f>
+        <v>0</v>
+      </c>
+      <c r="S14" s="22"/>
       <c r="T14" s="23" t="n">
-        <f aca="false">ROUNDUP(S14,-1)</f>
-        <v>0</v>
-      </c>
-      <c r="U14" s="24"/>
-      <c r="V14" s="17"/>
+        <f aca="false">R14+S14</f>
+        <v>0</v>
+      </c>
+      <c r="U14" s="23" t="n">
+        <f aca="false">ROUNDUP(T14,-1)</f>
+        <v>0</v>
+      </c>
+      <c r="V14" s="24"/>
       <c r="W14" s="17"/>
-      <c r="X14" s="21"/>
-      <c r="Y14" s="17"/>
-      <c r="Z14" s="25"/>
+      <c r="X14" s="17"/>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="17"/>
       <c r="AA14" s="25"/>
       <c r="AB14" s="25"/>
       <c r="AC14" s="25"/>
       <c r="AD14" s="25"/>
-      <c r="AE14" s="25" t="n">
-        <f aca="false">AB14+AC14+AD14</f>
-        <v>0</v>
-      </c>
-      <c r="AF14" s="25"/>
-      <c r="AG14" s="25" t="n">
-        <f aca="false">AE14+AF14</f>
-        <v>0</v>
-      </c>
+      <c r="AE14" s="25"/>
+      <c r="AF14" s="25" t="n">
+        <f aca="false">AC14+AD14+AE14</f>
+        <v>0</v>
+      </c>
+      <c r="AG14" s="25"/>
       <c r="AH14" s="25" t="n">
-        <f aca="false">AA14-AG14</f>
+        <f aca="false">AF14+AG14</f>
         <v>0</v>
       </c>
       <c r="AI14" s="25" t="n">
-        <f aca="false">AE14+AH14</f>
-        <v>0</v>
-      </c>
-      <c r="AJ14" s="25"/>
+        <f aca="false">AB14-AH14</f>
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="25" t="n">
+        <f aca="false">AF14+AI14</f>
+        <v>0</v>
+      </c>
+      <c r="AK14" s="25"/>
     </row>
     <row r="15" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="15"/>
@@ -1965,61 +1989,62 @@
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
       <c r="H15" s="17"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="19" t="str">
-        <f aca="false">IF(ISNA(VLOOKUP($I15,TAB_List!$J:$K,2,0)),"",VLOOKUP($I15,TAB_List!$J:$K,2,0))</f>
-        <v/>
-      </c>
-      <c r="K15" s="16"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="20" t="str">
-        <f aca="false">IF($L15="","",VLOOKUP($L15,TAB_List!$F:$G,2,0))</f>
-        <v/>
-      </c>
-      <c r="N15" s="16"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="23" t="n">
-        <f aca="false">O15*P15</f>
-        <v>0</v>
-      </c>
-      <c r="R15" s="22"/>
-      <c r="S15" s="23" t="n">
-        <f aca="false">Q15+R15</f>
-        <v>0</v>
-      </c>
+      <c r="I15" s="17"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="19" t="str">
+        <f aca="false">IF(ISNA(VLOOKUP($J15,TAB_List!$J:$K,2,0)),"",VLOOKUP($J15,TAB_List!$J:$K,2,0))</f>
+        <v/>
+      </c>
+      <c r="L15" s="16"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="20" t="str">
+        <f aca="false">IF($M15="","",VLOOKUP($M15,TAB_List!$F:$G,2,0))</f>
+        <v/>
+      </c>
+      <c r="O15" s="16"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="23" t="n">
+        <f aca="false">P15*Q15</f>
+        <v>0</v>
+      </c>
+      <c r="S15" s="22"/>
       <c r="T15" s="23" t="n">
-        <f aca="false">ROUNDUP(S15,-1)</f>
-        <v>0</v>
-      </c>
-      <c r="U15" s="24"/>
-      <c r="V15" s="17"/>
+        <f aca="false">R15+S15</f>
+        <v>0</v>
+      </c>
+      <c r="U15" s="23" t="n">
+        <f aca="false">ROUNDUP(T15,-1)</f>
+        <v>0</v>
+      </c>
+      <c r="V15" s="24"/>
       <c r="W15" s="17"/>
-      <c r="X15" s="21"/>
-      <c r="Y15" s="17"/>
-      <c r="Z15" s="25"/>
+      <c r="X15" s="17"/>
+      <c r="Y15" s="21"/>
+      <c r="Z15" s="17"/>
       <c r="AA15" s="25"/>
       <c r="AB15" s="25"/>
       <c r="AC15" s="25"/>
       <c r="AD15" s="25"/>
-      <c r="AE15" s="25" t="n">
-        <f aca="false">AB15+AC15+AD15</f>
-        <v>0</v>
-      </c>
-      <c r="AF15" s="25"/>
-      <c r="AG15" s="25" t="n">
-        <f aca="false">AE15+AF15</f>
-        <v>0</v>
-      </c>
+      <c r="AE15" s="25"/>
+      <c r="AF15" s="25" t="n">
+        <f aca="false">AC15+AD15+AE15</f>
+        <v>0</v>
+      </c>
+      <c r="AG15" s="25"/>
       <c r="AH15" s="25" t="n">
-        <f aca="false">AA15-AG15</f>
+        <f aca="false">AF15+AG15</f>
         <v>0</v>
       </c>
       <c r="AI15" s="25" t="n">
-        <f aca="false">AE15+AH15</f>
-        <v>0</v>
-      </c>
-      <c r="AJ15" s="25"/>
+        <f aca="false">AB15-AH15</f>
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="25" t="n">
+        <f aca="false">AF15+AI15</f>
+        <v>0</v>
+      </c>
+      <c r="AK15" s="25"/>
     </row>
     <row r="16" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="15"/>
@@ -2029,61 +2054,62 @@
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="19" t="str">
-        <f aca="false">IF(ISNA(VLOOKUP($I16,TAB_List!$J:$K,2,0)),"",VLOOKUP($I16,TAB_List!$J:$K,2,0))</f>
-        <v/>
-      </c>
-      <c r="K16" s="16"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="20" t="str">
-        <f aca="false">IF($L16="","",VLOOKUP($L16,TAB_List!$F:$G,2,0))</f>
-        <v/>
-      </c>
-      <c r="N16" s="16"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="23" t="n">
-        <f aca="false">O16*P16</f>
-        <v>0</v>
-      </c>
-      <c r="R16" s="22"/>
-      <c r="S16" s="23" t="n">
-        <f aca="false">Q16+R16</f>
-        <v>0</v>
-      </c>
+      <c r="I16" s="17"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="19" t="str">
+        <f aca="false">IF(ISNA(VLOOKUP($J16,TAB_List!$J:$K,2,0)),"",VLOOKUP($J16,TAB_List!$J:$K,2,0))</f>
+        <v/>
+      </c>
+      <c r="L16" s="16"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="20" t="str">
+        <f aca="false">IF($M16="","",VLOOKUP($M16,TAB_List!$F:$G,2,0))</f>
+        <v/>
+      </c>
+      <c r="O16" s="16"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="23" t="n">
+        <f aca="false">P16*Q16</f>
+        <v>0</v>
+      </c>
+      <c r="S16" s="22"/>
       <c r="T16" s="23" t="n">
-        <f aca="false">ROUNDUP(S16,-1)</f>
-        <v>0</v>
-      </c>
-      <c r="U16" s="24"/>
-      <c r="V16" s="17"/>
+        <f aca="false">R16+S16</f>
+        <v>0</v>
+      </c>
+      <c r="U16" s="23" t="n">
+        <f aca="false">ROUNDUP(T16,-1)</f>
+        <v>0</v>
+      </c>
+      <c r="V16" s="24"/>
       <c r="W16" s="17"/>
-      <c r="X16" s="21"/>
-      <c r="Y16" s="17"/>
-      <c r="Z16" s="25"/>
+      <c r="X16" s="17"/>
+      <c r="Y16" s="21"/>
+      <c r="Z16" s="17"/>
       <c r="AA16" s="25"/>
       <c r="AB16" s="25"/>
       <c r="AC16" s="25"/>
       <c r="AD16" s="25"/>
-      <c r="AE16" s="25" t="n">
-        <f aca="false">AB16+AC16+AD16</f>
-        <v>0</v>
-      </c>
-      <c r="AF16" s="25"/>
-      <c r="AG16" s="25" t="n">
-        <f aca="false">AE16+AF16</f>
-        <v>0</v>
-      </c>
+      <c r="AE16" s="25"/>
+      <c r="AF16" s="25" t="n">
+        <f aca="false">AC16+AD16+AE16</f>
+        <v>0</v>
+      </c>
+      <c r="AG16" s="25"/>
       <c r="AH16" s="25" t="n">
-        <f aca="false">AA16-AG16</f>
+        <f aca="false">AF16+AG16</f>
         <v>0</v>
       </c>
       <c r="AI16" s="25" t="n">
-        <f aca="false">AE16+AH16</f>
-        <v>0</v>
-      </c>
-      <c r="AJ16" s="25"/>
+        <f aca="false">AB16-AH16</f>
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="25" t="n">
+        <f aca="false">AF16+AI16</f>
+        <v>0</v>
+      </c>
+      <c r="AK16" s="25"/>
     </row>
     <row r="17" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="15"/>
@@ -2093,61 +2119,62 @@
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="19" t="str">
-        <f aca="false">IF(ISNA(VLOOKUP($I17,TAB_List!$J:$K,2,0)),"",VLOOKUP($I17,TAB_List!$J:$K,2,0))</f>
-        <v/>
-      </c>
-      <c r="K17" s="16"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="20" t="str">
-        <f aca="false">IF($L17="","",VLOOKUP($L17,TAB_List!$F:$G,2,0))</f>
-        <v/>
-      </c>
-      <c r="N17" s="16"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="23" t="n">
-        <f aca="false">O17*P17</f>
-        <v>0</v>
-      </c>
-      <c r="R17" s="22"/>
-      <c r="S17" s="23" t="n">
-        <f aca="false">Q17+R17</f>
-        <v>0</v>
-      </c>
+      <c r="I17" s="17"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="19" t="str">
+        <f aca="false">IF(ISNA(VLOOKUP($J17,TAB_List!$J:$K,2,0)),"",VLOOKUP($J17,TAB_List!$J:$K,2,0))</f>
+        <v/>
+      </c>
+      <c r="L17" s="16"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="20" t="str">
+        <f aca="false">IF($M17="","",VLOOKUP($M17,TAB_List!$F:$G,2,0))</f>
+        <v/>
+      </c>
+      <c r="O17" s="16"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="23" t="n">
+        <f aca="false">P17*Q17</f>
+        <v>0</v>
+      </c>
+      <c r="S17" s="22"/>
       <c r="T17" s="23" t="n">
-        <f aca="false">ROUNDUP(S17,-1)</f>
-        <v>0</v>
-      </c>
-      <c r="U17" s="24"/>
-      <c r="V17" s="17"/>
+        <f aca="false">R17+S17</f>
+        <v>0</v>
+      </c>
+      <c r="U17" s="23" t="n">
+        <f aca="false">ROUNDUP(T17,-1)</f>
+        <v>0</v>
+      </c>
+      <c r="V17" s="24"/>
       <c r="W17" s="17"/>
-      <c r="X17" s="21"/>
-      <c r="Y17" s="17"/>
-      <c r="Z17" s="25"/>
+      <c r="X17" s="17"/>
+      <c r="Y17" s="21"/>
+      <c r="Z17" s="17"/>
       <c r="AA17" s="25"/>
       <c r="AB17" s="25"/>
       <c r="AC17" s="25"/>
       <c r="AD17" s="25"/>
-      <c r="AE17" s="25" t="n">
-        <f aca="false">AB17+AC17+AD17</f>
-        <v>0</v>
-      </c>
-      <c r="AF17" s="25"/>
-      <c r="AG17" s="25" t="n">
-        <f aca="false">AE17+AF17</f>
-        <v>0</v>
-      </c>
+      <c r="AE17" s="25"/>
+      <c r="AF17" s="25" t="n">
+        <f aca="false">AC17+AD17+AE17</f>
+        <v>0</v>
+      </c>
+      <c r="AG17" s="25"/>
       <c r="AH17" s="25" t="n">
-        <f aca="false">AA17-AG17</f>
+        <f aca="false">AF17+AG17</f>
         <v>0</v>
       </c>
       <c r="AI17" s="25" t="n">
-        <f aca="false">AE17+AH17</f>
-        <v>0</v>
-      </c>
-      <c r="AJ17" s="25"/>
+        <f aca="false">AB17-AH17</f>
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="25" t="n">
+        <f aca="false">AF17+AI17</f>
+        <v>0</v>
+      </c>
+      <c r="AK17" s="25"/>
     </row>
     <row r="18" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="15"/>
@@ -2157,61 +2184,62 @@
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="19" t="str">
-        <f aca="false">IF(ISNA(VLOOKUP($I18,TAB_List!$J:$K,2,0)),"",VLOOKUP($I18,TAB_List!$J:$K,2,0))</f>
-        <v/>
-      </c>
-      <c r="K18" s="16"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="20" t="str">
-        <f aca="false">IF($L18="","",VLOOKUP($L18,TAB_List!$F:$G,2,0))</f>
-        <v/>
-      </c>
-      <c r="N18" s="16"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="23" t="n">
-        <f aca="false">O18*P18</f>
-        <v>0</v>
-      </c>
-      <c r="R18" s="22"/>
-      <c r="S18" s="23" t="n">
-        <f aca="false">Q18+R18</f>
-        <v>0</v>
-      </c>
+      <c r="I18" s="17"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="19" t="str">
+        <f aca="false">IF(ISNA(VLOOKUP($J18,TAB_List!$J:$K,2,0)),"",VLOOKUP($J18,TAB_List!$J:$K,2,0))</f>
+        <v/>
+      </c>
+      <c r="L18" s="16"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="20" t="str">
+        <f aca="false">IF($M18="","",VLOOKUP($M18,TAB_List!$F:$G,2,0))</f>
+        <v/>
+      </c>
+      <c r="O18" s="16"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="23" t="n">
+        <f aca="false">P18*Q18</f>
+        <v>0</v>
+      </c>
+      <c r="S18" s="22"/>
       <c r="T18" s="23" t="n">
-        <f aca="false">ROUNDUP(S18,-1)</f>
-        <v>0</v>
-      </c>
-      <c r="U18" s="24"/>
-      <c r="V18" s="17"/>
+        <f aca="false">R18+S18</f>
+        <v>0</v>
+      </c>
+      <c r="U18" s="23" t="n">
+        <f aca="false">ROUNDUP(T18,-1)</f>
+        <v>0</v>
+      </c>
+      <c r="V18" s="24"/>
       <c r="W18" s="17"/>
-      <c r="X18" s="21"/>
-      <c r="Y18" s="17"/>
-      <c r="Z18" s="25"/>
+      <c r="X18" s="17"/>
+      <c r="Y18" s="21"/>
+      <c r="Z18" s="17"/>
       <c r="AA18" s="25"/>
       <c r="AB18" s="25"/>
       <c r="AC18" s="25"/>
       <c r="AD18" s="25"/>
-      <c r="AE18" s="25" t="n">
-        <f aca="false">AB18+AC18+AD18</f>
-        <v>0</v>
-      </c>
-      <c r="AF18" s="25"/>
-      <c r="AG18" s="25" t="n">
-        <f aca="false">AE18+AF18</f>
-        <v>0</v>
-      </c>
+      <c r="AE18" s="25"/>
+      <c r="AF18" s="25" t="n">
+        <f aca="false">AC18+AD18+AE18</f>
+        <v>0</v>
+      </c>
+      <c r="AG18" s="25"/>
       <c r="AH18" s="25" t="n">
-        <f aca="false">AA18-AG18</f>
+        <f aca="false">AF18+AG18</f>
         <v>0</v>
       </c>
       <c r="AI18" s="25" t="n">
-        <f aca="false">AE18+AH18</f>
-        <v>0</v>
-      </c>
-      <c r="AJ18" s="25"/>
+        <f aca="false">AB18-AH18</f>
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="25" t="n">
+        <f aca="false">AF18+AI18</f>
+        <v>0</v>
+      </c>
+      <c r="AK18" s="25"/>
     </row>
     <row r="19" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="15"/>
@@ -2221,61 +2249,62 @@
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="19" t="str">
-        <f aca="false">IF(ISNA(VLOOKUP($I19,TAB_List!$J:$K,2,0)),"",VLOOKUP($I19,TAB_List!$J:$K,2,0))</f>
-        <v/>
-      </c>
-      <c r="K19" s="16"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="20" t="str">
-        <f aca="false">IF($L19="","",VLOOKUP($L19,TAB_List!$F:$G,2,0))</f>
-        <v/>
-      </c>
-      <c r="N19" s="16"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="23" t="n">
-        <f aca="false">O19*P19</f>
-        <v>0</v>
-      </c>
-      <c r="R19" s="22"/>
-      <c r="S19" s="23" t="n">
-        <f aca="false">Q19+R19</f>
-        <v>0</v>
-      </c>
+      <c r="I19" s="17"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="19" t="str">
+        <f aca="false">IF(ISNA(VLOOKUP($J19,TAB_List!$J:$K,2,0)),"",VLOOKUP($J19,TAB_List!$J:$K,2,0))</f>
+        <v/>
+      </c>
+      <c r="L19" s="16"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="20" t="str">
+        <f aca="false">IF($M19="","",VLOOKUP($M19,TAB_List!$F:$G,2,0))</f>
+        <v/>
+      </c>
+      <c r="O19" s="16"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="23" t="n">
+        <f aca="false">P19*Q19</f>
+        <v>0</v>
+      </c>
+      <c r="S19" s="22"/>
       <c r="T19" s="23" t="n">
-        <f aca="false">ROUNDUP(S19,-1)</f>
-        <v>0</v>
-      </c>
-      <c r="U19" s="24"/>
-      <c r="V19" s="17"/>
+        <f aca="false">R19+S19</f>
+        <v>0</v>
+      </c>
+      <c r="U19" s="23" t="n">
+        <f aca="false">ROUNDUP(T19,-1)</f>
+        <v>0</v>
+      </c>
+      <c r="V19" s="24"/>
       <c r="W19" s="17"/>
-      <c r="X19" s="21"/>
-      <c r="Y19" s="17"/>
-      <c r="Z19" s="25"/>
+      <c r="X19" s="17"/>
+      <c r="Y19" s="21"/>
+      <c r="Z19" s="17"/>
       <c r="AA19" s="25"/>
       <c r="AB19" s="25"/>
       <c r="AC19" s="25"/>
       <c r="AD19" s="25"/>
-      <c r="AE19" s="25" t="n">
-        <f aca="false">AB19+AC19+AD19</f>
-        <v>0</v>
-      </c>
-      <c r="AF19" s="25"/>
-      <c r="AG19" s="25" t="n">
-        <f aca="false">AE19+AF19</f>
-        <v>0</v>
-      </c>
+      <c r="AE19" s="25"/>
+      <c r="AF19" s="25" t="n">
+        <f aca="false">AC19+AD19+AE19</f>
+        <v>0</v>
+      </c>
+      <c r="AG19" s="25"/>
       <c r="AH19" s="25" t="n">
-        <f aca="false">AA19-AG19</f>
+        <f aca="false">AF19+AG19</f>
         <v>0</v>
       </c>
       <c r="AI19" s="25" t="n">
-        <f aca="false">AE19+AH19</f>
-        <v>0</v>
-      </c>
-      <c r="AJ19" s="25"/>
+        <f aca="false">AB19-AH19</f>
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="25" t="n">
+        <f aca="false">AF19+AI19</f>
+        <v>0</v>
+      </c>
+      <c r="AK19" s="25"/>
     </row>
     <row r="20" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="15"/>
@@ -2285,61 +2314,62 @@
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="19" t="str">
-        <f aca="false">IF(ISNA(VLOOKUP($I20,TAB_List!$J:$K,2,0)),"",VLOOKUP($I20,TAB_List!$J:$K,2,0))</f>
-        <v/>
-      </c>
-      <c r="K20" s="16"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="20" t="str">
-        <f aca="false">IF($L20="","",VLOOKUP($L20,TAB_List!$F:$G,2,0))</f>
-        <v/>
-      </c>
-      <c r="N20" s="16"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="23" t="n">
-        <f aca="false">O20*P20</f>
-        <v>0</v>
-      </c>
-      <c r="R20" s="22"/>
-      <c r="S20" s="23" t="n">
-        <f aca="false">Q20+R20</f>
-        <v>0</v>
-      </c>
+      <c r="I20" s="17"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="19" t="str">
+        <f aca="false">IF(ISNA(VLOOKUP($J20,TAB_List!$J:$K,2,0)),"",VLOOKUP($J20,TAB_List!$J:$K,2,0))</f>
+        <v/>
+      </c>
+      <c r="L20" s="16"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="20" t="str">
+        <f aca="false">IF($M20="","",VLOOKUP($M20,TAB_List!$F:$G,2,0))</f>
+        <v/>
+      </c>
+      <c r="O20" s="16"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="23" t="n">
+        <f aca="false">P20*Q20</f>
+        <v>0</v>
+      </c>
+      <c r="S20" s="22"/>
       <c r="T20" s="23" t="n">
-        <f aca="false">ROUNDUP(S20,-1)</f>
-        <v>0</v>
-      </c>
-      <c r="U20" s="24"/>
-      <c r="V20" s="17"/>
+        <f aca="false">R20+S20</f>
+        <v>0</v>
+      </c>
+      <c r="U20" s="23" t="n">
+        <f aca="false">ROUNDUP(T20,-1)</f>
+        <v>0</v>
+      </c>
+      <c r="V20" s="24"/>
       <c r="W20" s="17"/>
-      <c r="X20" s="21"/>
-      <c r="Y20" s="17"/>
-      <c r="Z20" s="25"/>
+      <c r="X20" s="17"/>
+      <c r="Y20" s="21"/>
+      <c r="Z20" s="17"/>
       <c r="AA20" s="25"/>
       <c r="AB20" s="25"/>
       <c r="AC20" s="25"/>
       <c r="AD20" s="25"/>
-      <c r="AE20" s="25" t="n">
-        <f aca="false">AB20+AC20+AD20</f>
-        <v>0</v>
-      </c>
-      <c r="AF20" s="25"/>
-      <c r="AG20" s="25" t="n">
-        <f aca="false">AE20+AF20</f>
-        <v>0</v>
-      </c>
+      <c r="AE20" s="25"/>
+      <c r="AF20" s="25" t="n">
+        <f aca="false">AC20+AD20+AE20</f>
+        <v>0</v>
+      </c>
+      <c r="AG20" s="25"/>
       <c r="AH20" s="25" t="n">
-        <f aca="false">AA20-AG20</f>
+        <f aca="false">AF20+AG20</f>
         <v>0</v>
       </c>
       <c r="AI20" s="25" t="n">
-        <f aca="false">AE20+AH20</f>
-        <v>0</v>
-      </c>
-      <c r="AJ20" s="25"/>
+        <f aca="false">AB20-AH20</f>
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="25" t="n">
+        <f aca="false">AF20+AI20</f>
+        <v>0</v>
+      </c>
+      <c r="AK20" s="25"/>
     </row>
     <row r="21" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="15"/>
@@ -2349,61 +2379,62 @@
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="19" t="str">
-        <f aca="false">IF(ISNA(VLOOKUP($I21,TAB_List!$J:$K,2,0)),"",VLOOKUP($I21,TAB_List!$J:$K,2,0))</f>
-        <v/>
-      </c>
-      <c r="K21" s="16"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="20" t="str">
-        <f aca="false">IF($L21="","",VLOOKUP($L21,TAB_List!$F:$G,2,0))</f>
-        <v/>
-      </c>
-      <c r="N21" s="16"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="23" t="n">
-        <f aca="false">O21*P21</f>
-        <v>0</v>
-      </c>
-      <c r="R21" s="22"/>
-      <c r="S21" s="23" t="n">
-        <f aca="false">Q21+R21</f>
-        <v>0</v>
-      </c>
+      <c r="I21" s="17"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="19" t="str">
+        <f aca="false">IF(ISNA(VLOOKUP($J21,TAB_List!$J:$K,2,0)),"",VLOOKUP($J21,TAB_List!$J:$K,2,0))</f>
+        <v/>
+      </c>
+      <c r="L21" s="16"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="20" t="str">
+        <f aca="false">IF($M21="","",VLOOKUP($M21,TAB_List!$F:$G,2,0))</f>
+        <v/>
+      </c>
+      <c r="O21" s="16"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="23" t="n">
+        <f aca="false">P21*Q21</f>
+        <v>0</v>
+      </c>
+      <c r="S21" s="22"/>
       <c r="T21" s="23" t="n">
-        <f aca="false">ROUNDUP(S21,-1)</f>
-        <v>0</v>
-      </c>
-      <c r="U21" s="24"/>
-      <c r="V21" s="17"/>
+        <f aca="false">R21+S21</f>
+        <v>0</v>
+      </c>
+      <c r="U21" s="23" t="n">
+        <f aca="false">ROUNDUP(T21,-1)</f>
+        <v>0</v>
+      </c>
+      <c r="V21" s="24"/>
       <c r="W21" s="17"/>
-      <c r="X21" s="21"/>
-      <c r="Y21" s="17"/>
-      <c r="Z21" s="25"/>
+      <c r="X21" s="17"/>
+      <c r="Y21" s="21"/>
+      <c r="Z21" s="17"/>
       <c r="AA21" s="25"/>
       <c r="AB21" s="25"/>
       <c r="AC21" s="25"/>
       <c r="AD21" s="25"/>
-      <c r="AE21" s="25" t="n">
-        <f aca="false">AB21+AC21+AD21</f>
-        <v>0</v>
-      </c>
-      <c r="AF21" s="25"/>
-      <c r="AG21" s="25" t="n">
-        <f aca="false">AE21+AF21</f>
-        <v>0</v>
-      </c>
+      <c r="AE21" s="25"/>
+      <c r="AF21" s="25" t="n">
+        <f aca="false">AC21+AD21+AE21</f>
+        <v>0</v>
+      </c>
+      <c r="AG21" s="25"/>
       <c r="AH21" s="25" t="n">
-        <f aca="false">AA21-AG21</f>
+        <f aca="false">AF21+AG21</f>
         <v>0</v>
       </c>
       <c r="AI21" s="25" t="n">
-        <f aca="false">AE21+AH21</f>
-        <v>0</v>
-      </c>
-      <c r="AJ21" s="25"/>
+        <f aca="false">AB21-AH21</f>
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="25" t="n">
+        <f aca="false">AF21+AI21</f>
+        <v>0</v>
+      </c>
+      <c r="AK21" s="25"/>
     </row>
     <row r="22" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="15"/>
@@ -2413,61 +2444,62 @@
       <c r="F22" s="17"/>
       <c r="G22" s="17"/>
       <c r="H22" s="17"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="19" t="str">
-        <f aca="false">IF(ISNA(VLOOKUP($I22,TAB_List!$J:$K,2,0)),"",VLOOKUP($I22,TAB_List!$J:$K,2,0))</f>
-        <v/>
-      </c>
-      <c r="K22" s="16"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="20" t="str">
-        <f aca="false">IF($L22="","",VLOOKUP($L22,TAB_List!$F:$G,2,0))</f>
-        <v/>
-      </c>
-      <c r="N22" s="16"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="23" t="n">
-        <f aca="false">O22*P22</f>
-        <v>0</v>
-      </c>
-      <c r="R22" s="22"/>
-      <c r="S22" s="23" t="n">
-        <f aca="false">Q22+R22</f>
-        <v>0</v>
-      </c>
+      <c r="I22" s="17"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="19" t="str">
+        <f aca="false">IF(ISNA(VLOOKUP($J22,TAB_List!$J:$K,2,0)),"",VLOOKUP($J22,TAB_List!$J:$K,2,0))</f>
+        <v/>
+      </c>
+      <c r="L22" s="16"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="20" t="str">
+        <f aca="false">IF($M22="","",VLOOKUP($M22,TAB_List!$F:$G,2,0))</f>
+        <v/>
+      </c>
+      <c r="O22" s="16"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="23" t="n">
+        <f aca="false">P22*Q22</f>
+        <v>0</v>
+      </c>
+      <c r="S22" s="22"/>
       <c r="T22" s="23" t="n">
-        <f aca="false">ROUNDUP(S22,-1)</f>
-        <v>0</v>
-      </c>
-      <c r="U22" s="24"/>
-      <c r="V22" s="17"/>
+        <f aca="false">R22+S22</f>
+        <v>0</v>
+      </c>
+      <c r="U22" s="23" t="n">
+        <f aca="false">ROUNDUP(T22,-1)</f>
+        <v>0</v>
+      </c>
+      <c r="V22" s="24"/>
       <c r="W22" s="17"/>
-      <c r="X22" s="21"/>
-      <c r="Y22" s="17"/>
-      <c r="Z22" s="25"/>
+      <c r="X22" s="17"/>
+      <c r="Y22" s="21"/>
+      <c r="Z22" s="17"/>
       <c r="AA22" s="25"/>
       <c r="AB22" s="25"/>
       <c r="AC22" s="25"/>
       <c r="AD22" s="25"/>
-      <c r="AE22" s="25" t="n">
-        <f aca="false">AB22+AC22+AD22</f>
-        <v>0</v>
-      </c>
-      <c r="AF22" s="25"/>
-      <c r="AG22" s="25" t="n">
-        <f aca="false">AE22+AF22</f>
-        <v>0</v>
-      </c>
+      <c r="AE22" s="25"/>
+      <c r="AF22" s="25" t="n">
+        <f aca="false">AC22+AD22+AE22</f>
+        <v>0</v>
+      </c>
+      <c r="AG22" s="25"/>
       <c r="AH22" s="25" t="n">
-        <f aca="false">AA22-AG22</f>
+        <f aca="false">AF22+AG22</f>
         <v>0</v>
       </c>
       <c r="AI22" s="25" t="n">
-        <f aca="false">AE22+AH22</f>
-        <v>0</v>
-      </c>
-      <c r="AJ22" s="25"/>
+        <f aca="false">AB22-AH22</f>
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="25" t="n">
+        <f aca="false">AF22+AI22</f>
+        <v>0</v>
+      </c>
+      <c r="AK22" s="25"/>
     </row>
     <row r="23" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="15"/>
@@ -2477,61 +2509,62 @@
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
       <c r="H23" s="17"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="19" t="str">
-        <f aca="false">IF(ISNA(VLOOKUP($I23,TAB_List!$J:$K,2,0)),"",VLOOKUP($I23,TAB_List!$J:$K,2,0))</f>
-        <v/>
-      </c>
-      <c r="K23" s="16"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="20" t="str">
-        <f aca="false">IF($L23="","",VLOOKUP($L23,TAB_List!$F:$G,2,0))</f>
-        <v/>
-      </c>
-      <c r="N23" s="16"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="23" t="n">
-        <f aca="false">O23*P23</f>
-        <v>0</v>
-      </c>
-      <c r="R23" s="22"/>
-      <c r="S23" s="23" t="n">
-        <f aca="false">Q23+R23</f>
-        <v>0</v>
-      </c>
+      <c r="I23" s="17"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="19" t="str">
+        <f aca="false">IF(ISNA(VLOOKUP($J23,TAB_List!$J:$K,2,0)),"",VLOOKUP($J23,TAB_List!$J:$K,2,0))</f>
+        <v/>
+      </c>
+      <c r="L23" s="16"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="20" t="str">
+        <f aca="false">IF($M23="","",VLOOKUP($M23,TAB_List!$F:$G,2,0))</f>
+        <v/>
+      </c>
+      <c r="O23" s="16"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="23" t="n">
+        <f aca="false">P23*Q23</f>
+        <v>0</v>
+      </c>
+      <c r="S23" s="22"/>
       <c r="T23" s="23" t="n">
-        <f aca="false">ROUNDUP(S23,-1)</f>
-        <v>0</v>
-      </c>
-      <c r="U23" s="24"/>
-      <c r="V23" s="17"/>
+        <f aca="false">R23+S23</f>
+        <v>0</v>
+      </c>
+      <c r="U23" s="23" t="n">
+        <f aca="false">ROUNDUP(T23,-1)</f>
+        <v>0</v>
+      </c>
+      <c r="V23" s="24"/>
       <c r="W23" s="17"/>
-      <c r="X23" s="21"/>
-      <c r="Y23" s="17"/>
-      <c r="Z23" s="25"/>
+      <c r="X23" s="17"/>
+      <c r="Y23" s="21"/>
+      <c r="Z23" s="17"/>
       <c r="AA23" s="25"/>
       <c r="AB23" s="25"/>
       <c r="AC23" s="25"/>
       <c r="AD23" s="25"/>
-      <c r="AE23" s="25" t="n">
-        <f aca="false">AB23+AC23+AD23</f>
-        <v>0</v>
-      </c>
-      <c r="AF23" s="25"/>
-      <c r="AG23" s="25" t="n">
-        <f aca="false">AE23+AF23</f>
-        <v>0</v>
-      </c>
+      <c r="AE23" s="25"/>
+      <c r="AF23" s="25" t="n">
+        <f aca="false">AC23+AD23+AE23</f>
+        <v>0</v>
+      </c>
+      <c r="AG23" s="25"/>
       <c r="AH23" s="25" t="n">
-        <f aca="false">AA23-AG23</f>
+        <f aca="false">AF23+AG23</f>
         <v>0</v>
       </c>
       <c r="AI23" s="25" t="n">
-        <f aca="false">AE23+AH23</f>
-        <v>0</v>
-      </c>
-      <c r="AJ23" s="25"/>
+        <f aca="false">AB23-AH23</f>
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="25" t="n">
+        <f aca="false">AF23+AI23</f>
+        <v>0</v>
+      </c>
+      <c r="AK23" s="25"/>
     </row>
     <row r="24" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="15"/>
@@ -2541,61 +2574,62 @@
       <c r="F24" s="17"/>
       <c r="G24" s="17"/>
       <c r="H24" s="17"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="19" t="str">
-        <f aca="false">IF(ISNA(VLOOKUP($I24,TAB_List!$J:$K,2,0)),"",VLOOKUP($I24,TAB_List!$J:$K,2,0))</f>
-        <v/>
-      </c>
-      <c r="K24" s="16"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="20" t="str">
-        <f aca="false">IF($L24="","",VLOOKUP($L24,TAB_List!$F:$G,2,0))</f>
-        <v/>
-      </c>
-      <c r="N24" s="16"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="23" t="n">
-        <f aca="false">O24*P24</f>
-        <v>0</v>
-      </c>
-      <c r="R24" s="22"/>
-      <c r="S24" s="23" t="n">
-        <f aca="false">Q24+R24</f>
-        <v>0</v>
-      </c>
+      <c r="I24" s="17"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="19" t="str">
+        <f aca="false">IF(ISNA(VLOOKUP($J24,TAB_List!$J:$K,2,0)),"",VLOOKUP($J24,TAB_List!$J:$K,2,0))</f>
+        <v/>
+      </c>
+      <c r="L24" s="16"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="20" t="str">
+        <f aca="false">IF($M24="","",VLOOKUP($M24,TAB_List!$F:$G,2,0))</f>
+        <v/>
+      </c>
+      <c r="O24" s="16"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="23" t="n">
+        <f aca="false">P24*Q24</f>
+        <v>0</v>
+      </c>
+      <c r="S24" s="22"/>
       <c r="T24" s="23" t="n">
-        <f aca="false">ROUNDUP(S24,-1)</f>
-        <v>0</v>
-      </c>
-      <c r="U24" s="24"/>
-      <c r="V24" s="17"/>
+        <f aca="false">R24+S24</f>
+        <v>0</v>
+      </c>
+      <c r="U24" s="23" t="n">
+        <f aca="false">ROUNDUP(T24,-1)</f>
+        <v>0</v>
+      </c>
+      <c r="V24" s="24"/>
       <c r="W24" s="17"/>
-      <c r="X24" s="21"/>
-      <c r="Y24" s="17"/>
-      <c r="Z24" s="25"/>
+      <c r="X24" s="17"/>
+      <c r="Y24" s="21"/>
+      <c r="Z24" s="17"/>
       <c r="AA24" s="25"/>
       <c r="AB24" s="25"/>
       <c r="AC24" s="25"/>
       <c r="AD24" s="25"/>
-      <c r="AE24" s="25" t="n">
-        <f aca="false">AB24+AC24+AD24</f>
-        <v>0</v>
-      </c>
-      <c r="AF24" s="25"/>
-      <c r="AG24" s="25" t="n">
-        <f aca="false">AE24+AF24</f>
-        <v>0</v>
-      </c>
+      <c r="AE24" s="25"/>
+      <c r="AF24" s="25" t="n">
+        <f aca="false">AC24+AD24+AE24</f>
+        <v>0</v>
+      </c>
+      <c r="AG24" s="25"/>
       <c r="AH24" s="25" t="n">
-        <f aca="false">AA24-AG24</f>
+        <f aca="false">AF24+AG24</f>
         <v>0</v>
       </c>
       <c r="AI24" s="25" t="n">
-        <f aca="false">AE24+AH24</f>
-        <v>0</v>
-      </c>
-      <c r="AJ24" s="25"/>
+        <f aca="false">AB24-AH24</f>
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="25" t="n">
+        <f aca="false">AF24+AI24</f>
+        <v>0</v>
+      </c>
+      <c r="AK24" s="25"/>
     </row>
     <row r="25" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="15"/>
@@ -2605,61 +2639,62 @@
       <c r="F25" s="17"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="19" t="str">
-        <f aca="false">IF(ISNA(VLOOKUP($I25,TAB_List!$J:$K,2,0)),"",VLOOKUP($I25,TAB_List!$J:$K,2,0))</f>
-        <v/>
-      </c>
-      <c r="K25" s="16"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="20" t="str">
-        <f aca="false">IF($L25="","",VLOOKUP($L25,TAB_List!$F:$G,2,0))</f>
-        <v/>
-      </c>
-      <c r="N25" s="16"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="23" t="n">
-        <f aca="false">O25*P25</f>
-        <v>0</v>
-      </c>
-      <c r="R25" s="22"/>
-      <c r="S25" s="23" t="n">
-        <f aca="false">Q25+R25</f>
-        <v>0</v>
-      </c>
+      <c r="I25" s="17"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="19" t="str">
+        <f aca="false">IF(ISNA(VLOOKUP($J25,TAB_List!$J:$K,2,0)),"",VLOOKUP($J25,TAB_List!$J:$K,2,0))</f>
+        <v/>
+      </c>
+      <c r="L25" s="16"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="20" t="str">
+        <f aca="false">IF($M25="","",VLOOKUP($M25,TAB_List!$F:$G,2,0))</f>
+        <v/>
+      </c>
+      <c r="O25" s="16"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="23" t="n">
+        <f aca="false">P25*Q25</f>
+        <v>0</v>
+      </c>
+      <c r="S25" s="22"/>
       <c r="T25" s="23" t="n">
-        <f aca="false">ROUNDUP(S25,-1)</f>
-        <v>0</v>
-      </c>
-      <c r="U25" s="24"/>
-      <c r="V25" s="17"/>
+        <f aca="false">R25+S25</f>
+        <v>0</v>
+      </c>
+      <c r="U25" s="23" t="n">
+        <f aca="false">ROUNDUP(T25,-1)</f>
+        <v>0</v>
+      </c>
+      <c r="V25" s="24"/>
       <c r="W25" s="17"/>
-      <c r="X25" s="21"/>
-      <c r="Y25" s="17"/>
-      <c r="Z25" s="25"/>
+      <c r="X25" s="17"/>
+      <c r="Y25" s="21"/>
+      <c r="Z25" s="17"/>
       <c r="AA25" s="25"/>
       <c r="AB25" s="25"/>
       <c r="AC25" s="25"/>
       <c r="AD25" s="25"/>
-      <c r="AE25" s="25" t="n">
-        <f aca="false">AB25+AC25+AD25</f>
-        <v>0</v>
-      </c>
-      <c r="AF25" s="25"/>
-      <c r="AG25" s="25" t="n">
-        <f aca="false">AE25+AF25</f>
-        <v>0</v>
-      </c>
+      <c r="AE25" s="25"/>
+      <c r="AF25" s="25" t="n">
+        <f aca="false">AC25+AD25+AE25</f>
+        <v>0</v>
+      </c>
+      <c r="AG25" s="25"/>
       <c r="AH25" s="25" t="n">
-        <f aca="false">AA25-AG25</f>
+        <f aca="false">AF25+AG25</f>
         <v>0</v>
       </c>
       <c r="AI25" s="25" t="n">
-        <f aca="false">AE25+AH25</f>
-        <v>0</v>
-      </c>
-      <c r="AJ25" s="25"/>
+        <f aca="false">AB25-AH25</f>
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="25" t="n">
+        <f aca="false">AF25+AI25</f>
+        <v>0</v>
+      </c>
+      <c r="AK25" s="25"/>
     </row>
     <row r="26" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="15"/>
@@ -2669,61 +2704,62 @@
       <c r="F26" s="17"/>
       <c r="G26" s="17"/>
       <c r="H26" s="17"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="19" t="str">
-        <f aca="false">IF(ISNA(VLOOKUP($I26,TAB_List!$J:$K,2,0)),"",VLOOKUP($I26,TAB_List!$J:$K,2,0))</f>
-        <v/>
-      </c>
-      <c r="K26" s="16"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="20" t="str">
-        <f aca="false">IF($L26="","",VLOOKUP($L26,TAB_List!$F:$G,2,0))</f>
-        <v/>
-      </c>
-      <c r="N26" s="16"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="23" t="n">
-        <f aca="false">O26*P26</f>
-        <v>0</v>
-      </c>
-      <c r="R26" s="22"/>
-      <c r="S26" s="23" t="n">
-        <f aca="false">Q26+R26</f>
-        <v>0</v>
-      </c>
+      <c r="I26" s="17"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="19" t="str">
+        <f aca="false">IF(ISNA(VLOOKUP($J26,TAB_List!$J:$K,2,0)),"",VLOOKUP($J26,TAB_List!$J:$K,2,0))</f>
+        <v/>
+      </c>
+      <c r="L26" s="16"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="20" t="str">
+        <f aca="false">IF($M26="","",VLOOKUP($M26,TAB_List!$F:$G,2,0))</f>
+        <v/>
+      </c>
+      <c r="O26" s="16"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="23" t="n">
+        <f aca="false">P26*Q26</f>
+        <v>0</v>
+      </c>
+      <c r="S26" s="22"/>
       <c r="T26" s="23" t="n">
-        <f aca="false">ROUNDUP(S26,-1)</f>
-        <v>0</v>
-      </c>
-      <c r="U26" s="24"/>
-      <c r="V26" s="17"/>
+        <f aca="false">R26+S26</f>
+        <v>0</v>
+      </c>
+      <c r="U26" s="23" t="n">
+        <f aca="false">ROUNDUP(T26,-1)</f>
+        <v>0</v>
+      </c>
+      <c r="V26" s="24"/>
       <c r="W26" s="17"/>
-      <c r="X26" s="21"/>
-      <c r="Y26" s="17"/>
-      <c r="Z26" s="25"/>
+      <c r="X26" s="17"/>
+      <c r="Y26" s="21"/>
+      <c r="Z26" s="17"/>
       <c r="AA26" s="25"/>
       <c r="AB26" s="25"/>
       <c r="AC26" s="25"/>
       <c r="AD26" s="25"/>
-      <c r="AE26" s="25" t="n">
-        <f aca="false">AB26+AC26+AD26</f>
-        <v>0</v>
-      </c>
-      <c r="AF26" s="25"/>
-      <c r="AG26" s="25" t="n">
-        <f aca="false">AE26+AF26</f>
-        <v>0</v>
-      </c>
+      <c r="AE26" s="25"/>
+      <c r="AF26" s="25" t="n">
+        <f aca="false">AC26+AD26+AE26</f>
+        <v>0</v>
+      </c>
+      <c r="AG26" s="25"/>
       <c r="AH26" s="25" t="n">
-        <f aca="false">AA26-AG26</f>
+        <f aca="false">AF26+AG26</f>
         <v>0</v>
       </c>
       <c r="AI26" s="25" t="n">
-        <f aca="false">AE26+AH26</f>
-        <v>0</v>
-      </c>
-      <c r="AJ26" s="25"/>
+        <f aca="false">AB26-AH26</f>
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="25" t="n">
+        <f aca="false">AF26+AI26</f>
+        <v>0</v>
+      </c>
+      <c r="AK26" s="25"/>
     </row>
     <row r="27" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="15"/>
@@ -2733,61 +2769,62 @@
       <c r="F27" s="17"/>
       <c r="G27" s="17"/>
       <c r="H27" s="17"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="19" t="str">
-        <f aca="false">IF(ISNA(VLOOKUP($I27,TAB_List!$J:$K,2,0)),"",VLOOKUP($I27,TAB_List!$J:$K,2,0))</f>
-        <v/>
-      </c>
-      <c r="K27" s="16"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="20" t="str">
-        <f aca="false">IF($L27="","",VLOOKUP($L27,TAB_List!$F:$G,2,0))</f>
-        <v/>
-      </c>
-      <c r="N27" s="16"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="23" t="n">
-        <f aca="false">O27*P27</f>
-        <v>0</v>
-      </c>
-      <c r="R27" s="22"/>
-      <c r="S27" s="23" t="n">
-        <f aca="false">Q27+R27</f>
-        <v>0</v>
-      </c>
+      <c r="I27" s="17"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="19" t="str">
+        <f aca="false">IF(ISNA(VLOOKUP($J27,TAB_List!$J:$K,2,0)),"",VLOOKUP($J27,TAB_List!$J:$K,2,0))</f>
+        <v/>
+      </c>
+      <c r="L27" s="16"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="20" t="str">
+        <f aca="false">IF($M27="","",VLOOKUP($M27,TAB_List!$F:$G,2,0))</f>
+        <v/>
+      </c>
+      <c r="O27" s="16"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="23" t="n">
+        <f aca="false">P27*Q27</f>
+        <v>0</v>
+      </c>
+      <c r="S27" s="22"/>
       <c r="T27" s="23" t="n">
-        <f aca="false">ROUNDUP(S27,-1)</f>
-        <v>0</v>
-      </c>
-      <c r="U27" s="24"/>
-      <c r="V27" s="17"/>
+        <f aca="false">R27+S27</f>
+        <v>0</v>
+      </c>
+      <c r="U27" s="23" t="n">
+        <f aca="false">ROUNDUP(T27,-1)</f>
+        <v>0</v>
+      </c>
+      <c r="V27" s="24"/>
       <c r="W27" s="17"/>
-      <c r="X27" s="21"/>
-      <c r="Y27" s="17"/>
-      <c r="Z27" s="25"/>
+      <c r="X27" s="17"/>
+      <c r="Y27" s="21"/>
+      <c r="Z27" s="17"/>
       <c r="AA27" s="25"/>
       <c r="AB27" s="25"/>
       <c r="AC27" s="25"/>
       <c r="AD27" s="25"/>
-      <c r="AE27" s="25" t="n">
-        <f aca="false">AB27+AC27+AD27</f>
-        <v>0</v>
-      </c>
-      <c r="AF27" s="25"/>
-      <c r="AG27" s="25" t="n">
-        <f aca="false">AE27+AF27</f>
-        <v>0</v>
-      </c>
+      <c r="AE27" s="25"/>
+      <c r="AF27" s="25" t="n">
+        <f aca="false">AC27+AD27+AE27</f>
+        <v>0</v>
+      </c>
+      <c r="AG27" s="25"/>
       <c r="AH27" s="25" t="n">
-        <f aca="false">AA27-AG27</f>
+        <f aca="false">AF27+AG27</f>
         <v>0</v>
       </c>
       <c r="AI27" s="25" t="n">
-        <f aca="false">AE27+AH27</f>
-        <v>0</v>
-      </c>
-      <c r="AJ27" s="25"/>
+        <f aca="false">AB27-AH27</f>
+        <v>0</v>
+      </c>
+      <c r="AJ27" s="25" t="n">
+        <f aca="false">AF27+AI27</f>
+        <v>0</v>
+      </c>
+      <c r="AK27" s="25"/>
     </row>
     <row r="28" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="15"/>
@@ -2797,61 +2834,62 @@
       <c r="F28" s="17"/>
       <c r="G28" s="17"/>
       <c r="H28" s="17"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="19" t="str">
-        <f aca="false">IF(ISNA(VLOOKUP($I28,TAB_List!$J:$K,2,0)),"",VLOOKUP($I28,TAB_List!$J:$K,2,0))</f>
-        <v/>
-      </c>
-      <c r="K28" s="16"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="20" t="str">
-        <f aca="false">IF($L28="","",VLOOKUP($L28,TAB_List!$F:$G,2,0))</f>
-        <v/>
-      </c>
-      <c r="N28" s="16"/>
-      <c r="O28" s="21"/>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="23" t="n">
-        <f aca="false">O28*P28</f>
-        <v>0</v>
-      </c>
-      <c r="R28" s="22"/>
-      <c r="S28" s="23" t="n">
-        <f aca="false">Q28+R28</f>
-        <v>0</v>
-      </c>
+      <c r="I28" s="17"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="19" t="str">
+        <f aca="false">IF(ISNA(VLOOKUP($J28,TAB_List!$J:$K,2,0)),"",VLOOKUP($J28,TAB_List!$J:$K,2,0))</f>
+        <v/>
+      </c>
+      <c r="L28" s="16"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="20" t="str">
+        <f aca="false">IF($M28="","",VLOOKUP($M28,TAB_List!$F:$G,2,0))</f>
+        <v/>
+      </c>
+      <c r="O28" s="16"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="23" t="n">
+        <f aca="false">P28*Q28</f>
+        <v>0</v>
+      </c>
+      <c r="S28" s="22"/>
       <c r="T28" s="23" t="n">
-        <f aca="false">ROUNDUP(S28,-1)</f>
-        <v>0</v>
-      </c>
-      <c r="U28" s="24"/>
-      <c r="V28" s="17"/>
+        <f aca="false">R28+S28</f>
+        <v>0</v>
+      </c>
+      <c r="U28" s="23" t="n">
+        <f aca="false">ROUNDUP(T28,-1)</f>
+        <v>0</v>
+      </c>
+      <c r="V28" s="24"/>
       <c r="W28" s="17"/>
-      <c r="X28" s="21"/>
-      <c r="Y28" s="17"/>
-      <c r="Z28" s="25"/>
+      <c r="X28" s="17"/>
+      <c r="Y28" s="21"/>
+      <c r="Z28" s="17"/>
       <c r="AA28" s="25"/>
       <c r="AB28" s="25"/>
       <c r="AC28" s="25"/>
       <c r="AD28" s="25"/>
-      <c r="AE28" s="25" t="n">
-        <f aca="false">AB28+AC28+AD28</f>
-        <v>0</v>
-      </c>
-      <c r="AF28" s="25"/>
-      <c r="AG28" s="25" t="n">
-        <f aca="false">AE28+AF28</f>
-        <v>0</v>
-      </c>
+      <c r="AE28" s="25"/>
+      <c r="AF28" s="25" t="n">
+        <f aca="false">AC28+AD28+AE28</f>
+        <v>0</v>
+      </c>
+      <c r="AG28" s="25"/>
       <c r="AH28" s="25" t="n">
-        <f aca="false">AA28-AG28</f>
+        <f aca="false">AF28+AG28</f>
         <v>0</v>
       </c>
       <c r="AI28" s="25" t="n">
-        <f aca="false">AE28+AH28</f>
-        <v>0</v>
-      </c>
-      <c r="AJ28" s="25"/>
+        <f aca="false">AB28-AH28</f>
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="25" t="n">
+        <f aca="false">AF28+AI28</f>
+        <v>0</v>
+      </c>
+      <c r="AK28" s="25"/>
     </row>
     <row r="29" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="15"/>
@@ -2861,82 +2899,80 @@
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
       <c r="H29" s="17"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="19" t="str">
-        <f aca="false">IF(ISNA(VLOOKUP($I29,TAB_List!$J:$K,2,0)),"",VLOOKUP($I29,TAB_List!$J:$K,2,0))</f>
-        <v/>
-      </c>
-      <c r="K29" s="16"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="20" t="str">
-        <f aca="false">IF($L29="","",VLOOKUP($L29,TAB_List!$F:$G,2,0))</f>
-        <v/>
-      </c>
-      <c r="N29" s="16"/>
-      <c r="O29" s="21"/>
-      <c r="P29" s="22"/>
-      <c r="Q29" s="23" t="n">
-        <f aca="false">O29*P29</f>
-        <v>0</v>
-      </c>
-      <c r="R29" s="22"/>
-      <c r="S29" s="23" t="n">
-        <f aca="false">Q29+R29</f>
-        <v>0</v>
-      </c>
+      <c r="I29" s="17"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="19" t="str">
+        <f aca="false">IF(ISNA(VLOOKUP($J29,TAB_List!$J:$K,2,0)),"",VLOOKUP($J29,TAB_List!$J:$K,2,0))</f>
+        <v/>
+      </c>
+      <c r="L29" s="16"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="20" t="str">
+        <f aca="false">IF($M29="","",VLOOKUP($M29,TAB_List!$F:$G,2,0))</f>
+        <v/>
+      </c>
+      <c r="O29" s="16"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="23" t="n">
+        <f aca="false">P29*Q29</f>
+        <v>0</v>
+      </c>
+      <c r="S29" s="22"/>
       <c r="T29" s="23" t="n">
-        <f aca="false">ROUNDUP(S29,-1)</f>
-        <v>0</v>
-      </c>
-      <c r="U29" s="24"/>
-      <c r="V29" s="17"/>
+        <f aca="false">R29+S29</f>
+        <v>0</v>
+      </c>
+      <c r="U29" s="23" t="n">
+        <f aca="false">ROUNDUP(T29,-1)</f>
+        <v>0</v>
+      </c>
+      <c r="V29" s="24"/>
       <c r="W29" s="17"/>
-      <c r="X29" s="21"/>
-      <c r="Y29" s="17"/>
-      <c r="Z29" s="25"/>
+      <c r="X29" s="17"/>
+      <c r="Y29" s="21"/>
+      <c r="Z29" s="17"/>
       <c r="AA29" s="25"/>
       <c r="AB29" s="25"/>
       <c r="AC29" s="25"/>
       <c r="AD29" s="25"/>
-      <c r="AE29" s="25" t="n">
-        <f aca="false">AB29+AC29+AD29</f>
-        <v>0</v>
-      </c>
-      <c r="AF29" s="25"/>
-      <c r="AG29" s="25" t="n">
-        <f aca="false">AE29+AF29</f>
-        <v>0</v>
-      </c>
+      <c r="AE29" s="25"/>
+      <c r="AF29" s="25" t="n">
+        <f aca="false">AC29+AD29+AE29</f>
+        <v>0</v>
+      </c>
+      <c r="AG29" s="25"/>
       <c r="AH29" s="25" t="n">
-        <f aca="false">AA29-AG29</f>
+        <f aca="false">AF29+AG29</f>
         <v>0</v>
       </c>
       <c r="AI29" s="25" t="n">
-        <f aca="false">AE29+AH29</f>
-        <v>0</v>
-      </c>
-      <c r="AJ29" s="25"/>
+        <f aca="false">AB29-AH29</f>
+        <v>0</v>
+      </c>
+      <c r="AJ29" s="25" t="n">
+        <f aca="false">AF29+AI29</f>
+        <v>0</v>
+      </c>
+      <c r="AK29" s="25"/>
     </row>
-    <row r="30" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="26"/>
       <c r="C30" s="26"/>
       <c r="D30" s="26"/>
       <c r="E30" s="27"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="28"/>
       <c r="H30" s="26"/>
       <c r="I30" s="26"/>
       <c r="J30" s="26"/>
-      <c r="K30" s="27"/>
+      <c r="K30" s="26"/>
       <c r="L30" s="27"/>
       <c r="M30" s="27"/>
       <c r="N30" s="27"/>
       <c r="O30" s="27"/>
       <c r="P30" s="27"/>
-      <c r="Q30" s="29" t="n">
-        <f aca="false">SUM(Q10:Q29)</f>
-        <v>0</v>
-      </c>
+      <c r="Q30" s="27"/>
       <c r="R30" s="29" t="n">
         <f aca="false">SUM(R10:R29)</f>
         <v>0</v>
@@ -2949,15 +2985,15 @@
         <f aca="false">SUM(T10:T29)</f>
         <v>0</v>
       </c>
-      <c r="U30" s="26"/>
+      <c r="U30" s="29" t="n">
+        <f aca="false">SUM(U10:U29)</f>
+        <v>0</v>
+      </c>
       <c r="V30" s="26"/>
       <c r="W30" s="26"/>
-      <c r="X30" s="27"/>
+      <c r="X30" s="26"/>
       <c r="Y30" s="27"/>
-      <c r="Z30" s="29" t="n">
-        <f aca="false">SUM(Z10:Z29)</f>
-        <v>0</v>
-      </c>
+      <c r="Z30" s="27"/>
       <c r="AA30" s="29" t="n">
         <f aca="false">SUM(AA10:AA29)</f>
         <v>0</v>
@@ -2998,96 +3034,103 @@
         <f aca="false">SUM(AJ10:AJ29)</f>
         <v>0</v>
       </c>
+      <c r="AK30" s="29" t="n">
+        <f aca="false">SUM(AK10:AK29)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>96</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="I33" s="6"/>
+        <v>98</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>98</v>
+      </c>
       <c r="J33" s="6"/>
-      <c r="K33" s="6" t="s">
-        <v>94</v>
-      </c>
+      <c r="K33" s="6"/>
       <c r="L33" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="M33" s="8" t="s">
         <v>96</v>
       </c>
+      <c r="M33" s="6" t="s">
+        <v>96</v>
+      </c>
       <c r="N33" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="O33" s="8"/>
+        <v>99</v>
+      </c>
+      <c r="O33" s="8" t="s">
+        <v>98</v>
+      </c>
       <c r="P33" s="8"/>
-      <c r="Q33" s="8" t="s">
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="U33" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="V33" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="W33" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="R33" s="8"/>
-      <c r="S33" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="T33" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="U33" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="V33" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="W33" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="X33" s="8"/>
-      <c r="Y33" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="Z33" s="8"/>
+      <c r="X33" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y33" s="8"/>
+      <c r="Z33" s="8" t="s">
+        <v>97</v>
+      </c>
       <c r="AA33" s="8"/>
       <c r="AB33" s="8"/>
       <c r="AC33" s="8"/>
       <c r="AD33" s="8"/>
+      <c r="AE33" s="8"/>
     </row>
-    <row r="34" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
-      <c r="F34" s="6"/>
+      <c r="F34" s="8"/>
       <c r="G34" s="6"/>
-      <c r="H34" s="8"/>
+      <c r="H34" s="6"/>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
-      <c r="K34" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="N34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8" t="s">
+        <v>105</v>
+      </c>
       <c r="O34" s="8"/>
       <c r="P34" s="8"/>
-      <c r="Q34" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="R34" s="8"/>
-      <c r="S34" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="T34" s="8"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="S34" s="8"/>
+      <c r="T34" s="8" t="s">
+        <v>106</v>
+      </c>
       <c r="U34" s="8"/>
       <c r="V34" s="8"/>
       <c r="W34" s="8"/>
@@ -3098,23 +3141,24 @@
       <c r="AB34" s="8"/>
       <c r="AC34" s="8"/>
       <c r="AD34" s="8"/>
-      <c r="AE34" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="AF34" s="8"/>
-      <c r="AG34" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="AE34" s="8"/>
+      <c r="AF34" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG34" s="8"/>
       <c r="AH34" s="8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AI34" s="8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AJ34" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL34" s="8"/>
+        <v>106</v>
+      </c>
+      <c r="AK34" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="AM34" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3125,11 +3169,11 @@
     <mergeCell ref="B6:D6"/>
   </mergeCells>
   <dataValidations count="9">
-    <dataValidation allowBlank="false" error="ท่านระบุหมวดหมู่ครุภัณฑ์ที่ไม่มีใน List กรุณาระบุใหม่อีกครั้ง" errorTitle="พบข้อมูลผิดพลาด" operator="between" prompt="1.Fundamental&#10;2.Software and computer&#10;3.Synthesis and production&#10;4.Fabrication&#10;5.Characterization&#10;6.Industry" promptTitle="กรุณาระบุหมวดหมู่ครุภัณฑ์" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F10:F29" type="list">
+    <dataValidation allowBlank="false" error="ท่านระบุหมวดหมู่ครุภัณฑ์ที่ไม่มีใน List กรุณาระบุใหม่อีกครั้ง" errorTitle="พบข้อมูลผิดพลาด" operator="between" prompt="1.Fundamental&#10;2.Software and computer&#10;3.Synthesis and production&#10;4.Fabrication&#10;5.Characterization&#10;6.Industry" promptTitle="กรุณาระบุหมวดหมู่ครุภัณฑ์" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G10:G29" type="list">
       <formula1>TAB_Asset_Cat</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" error="ท่านระบุเหตุผลในการขอซื้อที่ไม่มีใน List" errorTitle="พบข้อผิดพลาด" operator="between" prompt="กรุณาระบุเหตุผลในการขอซื้อ &#10;- ใหม่&#10;- ทดแทน&#10;- เพิ่มเติม" promptTitle="ระบุเหตุผลในการขอซื้อ" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="U11:U29" type="list">
+    <dataValidation allowBlank="true" error="ท่านระบุเหตุผลในการขอซื้อที่ไม่มีใน List" errorTitle="พบข้อผิดพลาด" operator="between" prompt="กรุณาระบุเหตุผลในการขอซื้อ &#10;- ใหม่&#10;- ทดแทน&#10;- เพิ่มเติม" promptTitle="ระบุเหตุผลในการขอซื้อ" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="V11:V29" type="list">
       <formula1>"ใหม่,ทดแทน,เพิ่มเติม"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3137,15 +3181,15 @@
       <formula1>List_Program_Group</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="ท่านระบุชื่อผู้ขอซื้อที่ไม่มีใน List กรุณาระบุใหม่อีกครั้ง" errorTitle="พบข้อผิดพลาด" operator="between" prompt="กรุณาระบุชื่อผู้ขอซื้อครุภัณฑ์ตาม List" promptTitle="ระบุชื่อผู้ขอซื้อครุภัณฑ์" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K10:K29" type="list">
+    <dataValidation allowBlank="false" error="ท่านระบุชื่อผู้ขอซื้อที่ไม่มีใน List กรุณาระบุใหม่อีกครั้ง" errorTitle="พบข้อผิดพลาด" operator="between" prompt="กรุณาระบุชื่อผู้ขอซื้อครุภัณฑ์ตาม List" promptTitle="ระบุชื่อผู้ขอซื้อครุภัณฑ์" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L10:L29" type="list">
       <formula1>List_Requester</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" error="ท่านระบุเหตุผลในการขอซื้อที่ไม่มีใน List กรุณาระบุใหม่อีกครั้ง" errorTitle="พบข้อผิดพลาด" operator="between" prompt="กรุณาระบุเหตุผลในการขอซื้อ &#10;- ใหม่&#10;- ทดแทน&#10;- เพิ่มเติม" promptTitle="ระบุเหตุผลในการขอซื้อ" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="U10" type="list">
+    <dataValidation allowBlank="true" error="ท่านระบุเหตุผลในการขอซื้อที่ไม่มีใน List กรุณาระบุใหม่อีกครั้ง" errorTitle="พบข้อผิดพลาด" operator="between" prompt="กรุณาระบุเหตุผลในการขอซื้อ &#10;- ใหม่&#10;- ทดแทน&#10;- เพิ่มเติม" promptTitle="ระบุเหตุผลในการขอซื้อ" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="V10" type="list">
       <formula1>"ใหม่,ทดแทน,เพิ่มเติม"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="ท่านระบุ Section ที่ใช้งานที่ไม่มีใน List กรุณาระบุใหม่อีกครั้ง" errorTitle="พบข้อผิดพลาด" operator="between" prompt="กรุณาระบุ Section ที่ใช้งานตาม List" promptTitle="ระบุ Section ที่ใช้งาน" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L10:L29" type="list">
+    <dataValidation allowBlank="false" error="ท่านระบุ Section ที่ใช้งานที่ไม่มีใน List กรุณาระบุใหม่อีกครั้ง" errorTitle="พบข้อผิดพลาด" operator="between" prompt="กรุณาระบุ Section ที่ใช้งานตาม List" promptTitle="ระบุ Section ที่ใช้งาน" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="M10:M29" type="list">
       <formula1>List_Section_Use</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3157,7 +3201,7 @@
       <formula1>"X"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="กรุณาระบุงานตามกลยุทธ์ สวทช. ตาม List" errorTitle="พบข้อผิดพลาด" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="I10:I29" type="list">
+    <dataValidation allowBlank="false" error="กรุณาระบุงานตามกลยุทธ์ สวทช. ตาม List" errorTitle="พบข้อผิดพลาด" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="J10:J29" type="list">
       <formula1>List_NSTDA_Strategy</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3204,31 +3248,31 @@
     <row r="1" customFormat="false" ht="4.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="30" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="4.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="4" s="31" customFormat="true" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="32" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D4" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="32" t="s">
         <v>33</v>
-      </c>
-      <c r="F4" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" s="32" t="s">
-        <v>32</v>
       </c>
       <c r="AMI4" s="0"/>
       <c r="AMJ4" s="0"/>
